--- a/Sample Data.xlsx
+++ b/Sample Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tess/Library/Mobile Documents/com~apple~CloudDocs/Northeastern/DAMG 6210/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://northeastern-my.sharepoint.com/personal/pillai_g_northeastern_edu/Documents/DMDD/Project/Project_Code/HMS_DMDD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9D4C5D-E06F-E844-B052-6B40E4715AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{EC9D4C5D-E06F-E844-B052-6B40E4715AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{329A37B4-F81A-49CA-B5BF-AA930F3594FE}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="500" windowWidth="24480" windowHeight="17440" xr2:uid="{645BB99E-29E3-AE48-A033-E8071B3E332E}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{645BB99E-29E3-AE48-A033-E8071B3E332E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1061,7 +1061,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1125,7 +1125,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1443,28 +1443,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978B268B-1964-A945-A950-73DFC31B9748}">
   <dimension ref="A1:I249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="K179" sqref="K179"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="A181" sqref="A181:C191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.625" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.375" customWidth="1"/>
+    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1684,12 +1684,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>314</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>8573504646</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>6172697656</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>6172657911</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>6177420783</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>6177377232</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>6173380128</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>7</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>6172695788</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>6173728156</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>9</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>6172361692</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10</v>
       </c>
@@ -1942,12 +1942,12 @@
         <v>6174378414</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>6</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>8</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>9</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10</v>
       </c>
@@ -2035,12 +2035,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>6</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>7</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>8</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>9</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10</v>
       </c>
@@ -2161,12 +2161,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>6</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>7</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>8</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>9</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>10</v>
       </c>
@@ -2254,12 +2254,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>76</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>15824003109</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>12095196285</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>15824429752</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>12077269540</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>5</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>14082561159</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>6</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>15824005039</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>7</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>15822622408</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>8</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>13092519490</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>9</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>13095474029</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>10</v>
       </c>
@@ -2380,12 +2380,12 @@
         <v>12288619737</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>90</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>4</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>5</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>6</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>7</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>8</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>9</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>10</v>
       </c>
@@ -2671,12 +2671,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>130</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>3</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>5</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>6</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>7</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>8</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>9</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>10</v>
       </c>
@@ -2797,12 +2797,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>141</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>3</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>4</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>5</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>6</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>7</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>8</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>9</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>10</v>
       </c>
@@ -2989,16 +2989,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D117" s="4"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>185</v>
       </c>
       <c r="D118" s="4"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>186</v>
       </c>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="D119" s="4"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1</v>
       </c>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="D120" s="4"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="D121" s="4"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>3</v>
       </c>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="D122" s="4"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>4</v>
       </c>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="D123" s="4"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>5</v>
       </c>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="D124" s="4"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>6</v>
       </c>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="D125" s="4"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>7</v>
       </c>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="D126" s="4"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>8</v>
       </c>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="D127" s="4"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>9</v>
       </c>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="D128" s="4"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>10</v>
       </c>
@@ -3097,17 +3097,17 @@
       </c>
       <c r="D129" s="4"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B130" s="6"/>
       <c r="D130" s="4"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>184</v>
       </c>
       <c r="D131" s="4"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>196</v>
       </c>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="D132" s="4"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="D133" s="4"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2</v>
       </c>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="D134" s="4"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>3</v>
       </c>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="D135" s="4"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>4</v>
       </c>
@@ -3152,7 +3152,7 @@
       </c>
       <c r="D136" s="4"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>5</v>
       </c>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="D137" s="4"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>6</v>
       </c>
@@ -3170,7 +3170,7 @@
       </c>
       <c r="D138" s="4"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>7</v>
       </c>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="D139" s="4"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>8</v>
       </c>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="D140" s="4"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>9</v>
       </c>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="D141" s="4"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>10</v>
       </c>
@@ -3206,15 +3206,15 @@
       </c>
       <c r="D142" s="4"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D143" s="4"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>163</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>3</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>4</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>5</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>6</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>7</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>8</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>9</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>10</v>
       </c>
@@ -3401,12 +3401,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>52</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>3</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>4</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>5</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>6</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>7</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>8</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>9</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>10</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>11</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>12</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>13</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>14</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>15</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>16</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>17</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>18</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>19</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>20</v>
       </c>
@@ -3967,12 +3967,12 @@
         <v>339</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>249</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>2</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>3</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>4</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>5</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>6</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>7</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>8</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>9</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>10</v>
       </c>
@@ -4093,12 +4093,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>261</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>2</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>3</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>4</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>5</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>6</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>7</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>8</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>9</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>10</v>
       </c>
@@ -4351,12 +4351,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>279</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>3</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>0.61458333333333337</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>4</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>0.63541666666666663</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>5</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>0.58680555555555558</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>6</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>7</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>8</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>0.47916666666666669</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>9</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>10</v>
       </c>
@@ -4576,12 +4576,12 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
         <v>296</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>3</v>
       </c>
@@ -4613,12 +4613,12 @@
         <v>294</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>298</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>44698.770833333336</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>2</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>44750.792361111111</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>3</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>44896.599305555559</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>4</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>44910.354166666664</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>5</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>44911.481944444444</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>6</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>44686.186805555553</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>7</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>44742.792361111111</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>8</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>44783.500694444447</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>9</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>44832.447916666664</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>10</v>
       </c>
@@ -4739,12 +4739,12 @@
         <v>44833.604166666664</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
         <v>301</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>3</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>4</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>5</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>6</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>7</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>8</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>9</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>10</v>
       </c>
